--- a/STAGEMombCivilLogin/testData/Data.xlsx
+++ b/STAGEMombCivilLogin/testData/Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>District</t>
   </si>
@@ -68,22 +68,13 @@
     <t>HYDERABAD</t>
   </si>
   <si>
-    <t>BANDLAGUDA</t>
+    <t>TIRUMALAGIRI</t>
   </si>
   <si>
-    <t>GOVT. HS(B)MISARAM, BARKAS</t>
+    <t>GOVT. HS MUDFORT, TIRUMALAGIRI,SECUNDERABAD</t>
   </si>
   <si>
-    <t>GOVT. PS CHATRIMET, NEW RAKSHAPURAM , RAJIV GANDHI NAGAR</t>
-  </si>
-  <si>
-    <t>GOVT. PS RED CROSS , NIRQUI PHOOL BAGH</t>
-  </si>
-  <si>
-    <t>GOVT. PS SIDDIQUINGR 3, SIDDIQUE NAGAR-3</t>
-  </si>
-  <si>
-    <t>GOVT.PS NEW INDRA NAGAR, NEW INDRA NAGAR</t>
+    <t>GOVT. HS(B)BOWENPALLY, TIRUMALGIRI,SECUNDERABAD</t>
   </si>
 </sst>
 </file>
@@ -270,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +270,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -501,21 +486,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -643,7 +613,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,119 +625,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,14 +752,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,13 +1294,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="15.7272727272727" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5454545454545" style="1" customWidth="1"/>
@@ -1369,17 +1336,17 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="31" spans="1:11">
+    <row r="2" ht="46.5" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1408,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K2" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="46.5" spans="1:11">
@@ -1440,118 +1407,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>20</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
       <c r="K3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="31" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>20</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="29" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="31" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
         <v>30</v>
-      </c>
-      <c r="I6" s="7">
-        <v>20</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
